--- a/wikipedia_validation_sheets/Pregnancy DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Pregnancy DISNET VALIDATION.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{08DB6FDE-16A1-134F-A1D7-22D4BA0692F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066A394B-657D-F746-B80A-5CC751FEFF69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="16400" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="133">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -334,12 +342,6 @@
     <t>Progesterone levels</t>
   </si>
   <si>
-    <t>Stretch marks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">implantation bleeding </t>
-  </si>
-  <si>
     <t xml:space="preserve">Darkening of the nipples and areolas </t>
   </si>
   <si>
@@ -347,6 +349,84 @@
   </si>
   <si>
     <t>FPREAL</t>
+  </si>
+  <si>
+    <t>bleeding</t>
+  </si>
+  <si>
+    <t>Hemorrhage</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>hyperpigmentation</t>
+  </si>
+  <si>
+    <t>Hyperpigmentation</t>
+  </si>
+  <si>
+    <t>electrolyte, imbalance</t>
+  </si>
+  <si>
+    <t>Electrolyte imbalance</t>
+  </si>
+  <si>
+    <t>softening</t>
+  </si>
+  <si>
+    <t>Malacia</t>
+  </si>
+  <si>
+    <t>denial, denials</t>
+  </si>
+  <si>
+    <t>Denial</t>
+  </si>
+  <si>
+    <t>[mobd]</t>
+  </si>
+  <si>
+    <t>complication</t>
+  </si>
+  <si>
+    <t>Complication</t>
+  </si>
+  <si>
+    <t>threatened, miscarriage</t>
+  </si>
+  <si>
+    <t>Threatened abortion</t>
+  </si>
+  <si>
+    <t>false, pregnancy</t>
+  </si>
+  <si>
+    <t>Physiologic pseudocyesis</t>
+  </si>
+  <si>
+    <t>fetal, abnormality</t>
+  </si>
+  <si>
+    <t>Congenital abnormality</t>
+  </si>
+  <si>
+    <t>[cgab]</t>
+  </si>
+  <si>
+    <t>contractions</t>
+  </si>
+  <si>
+    <t>Contraction (finding)</t>
+  </si>
+  <si>
+    <t>stretch, marks</t>
+  </si>
+  <si>
+    <t>Striae gravidarum</t>
+  </si>
+  <si>
+    <t>[acab]</t>
   </si>
 </sst>
 </file>
@@ -443,7 +523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -599,21 +679,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -650,51 +715,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -748,8 +768,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -779,31 +802,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1165,13 +1173,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151B92A3-DF00-4A4B-9D9A-6456096A92CB}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
@@ -1185,67 +1193,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="46" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1253,1544 +1261,1897 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="b">
+      <c r="E5" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K5" s="39"/>
+      <c r="F5" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="8" t="b">
+      <c r="E6" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" s="39"/>
+      <c r="F6" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="8" t="b">
+      <c r="E7" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7" s="39"/>
+      <c r="F7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="8" t="b">
+      <c r="E8" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" s="39"/>
+      <c r="F8" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="8" t="b">
+      <c r="E9" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="39"/>
+      <c r="F9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="8" t="b">
+      <c r="E10" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="39"/>
+      <c r="F10" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="8" t="b">
+      <c r="E11" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" s="39"/>
+      <c r="F11" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="8" t="b">
+      <c r="E12" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K12" s="39"/>
+      <c r="F12" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="8" t="b">
+      <c r="E13" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" s="39"/>
+      <c r="F13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="8" t="b">
+      <c r="E14" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" s="39"/>
+      <c r="F14" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="8" t="b">
+      <c r="E15" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K15" s="39"/>
+      <c r="F15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="8" t="b">
+      <c r="E16" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K16" s="39"/>
+      <c r="F16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="8" t="b">
+      <c r="E17" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" s="39"/>
+      <c r="F17" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="8" t="b">
+      <c r="E18" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K18" s="39"/>
+      <c r="F18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="8" t="b">
+      <c r="E19" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="39"/>
+      <c r="F19" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="8" t="b">
+      <c r="E20" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="39"/>
+      <c r="F20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="8" t="b">
+      <c r="E21" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K21" s="39"/>
+      <c r="F21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="8" t="b">
+      <c r="E22" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K22" s="39"/>
+      <c r="F22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="8" t="b">
+      <c r="E23" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K23" s="39"/>
+      <c r="F23" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="27"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="8" t="b">
+      <c r="E24" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K24" s="39"/>
+      <c r="F24" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="27"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="8" t="b">
+      <c r="E25" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K25" s="39"/>
+      <c r="F25" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="27"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="8" t="b">
+      <c r="E26" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K26" s="39"/>
+      <c r="F26" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="27"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="8" t="b">
+      <c r="E27" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K27" s="39"/>
+      <c r="F27" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K27" s="27"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="8" t="b">
+      <c r="E28" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" s="39"/>
+      <c r="F28" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="27"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="8" t="b">
+      <c r="E29" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K29" s="39"/>
+      <c r="F29" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" s="27"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="8" t="b">
+      <c r="E30" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K30" s="39"/>
+      <c r="F30" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" s="27"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="8" t="b">
+      <c r="E31" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K31" s="39"/>
+      <c r="F31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K31" s="27"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="8" t="b">
+      <c r="E32" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K32" s="39"/>
+      <c r="F32" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K32" s="27"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="8" t="b">
+      <c r="E33" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K33" s="39"/>
+      <c r="F33" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33" s="27"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="8" t="b">
+      <c r="E34" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K34" s="39"/>
+      <c r="F34" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K34" s="27"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="8" t="b">
+      <c r="E35" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K35" s="39"/>
+      <c r="F35" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35" s="27"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="8" t="b">
+      <c r="E36" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K36" s="39"/>
+      <c r="F36" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36" s="27"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="8" t="b">
+      <c r="E37" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K37" s="39"/>
+      <c r="F37" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K37" s="27"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>34</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="8" t="b">
+      <c r="E38" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K38" s="39"/>
+      <c r="F38" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K38" s="27"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="8" t="b">
+      <c r="E39" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K39" s="39"/>
+      <c r="F39" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K39" s="27"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>36</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="8" t="b">
+      <c r="E40" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K40" s="39"/>
+      <c r="F40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K40" s="27"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="8" t="b">
+      <c r="E41" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K41" s="39"/>
+      <c r="F41" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K41" s="27"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="8" t="b">
+      <c r="E42" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K42" s="39"/>
+      <c r="F42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K42" s="27"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>39</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="8" t="b">
+      <c r="E43" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K43" s="39"/>
+      <c r="F43" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K43" s="27"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="8" t="b">
+      <c r="E44" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K44" s="39"/>
+      <c r="F44" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K44" s="27"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>41</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="8" t="b">
+      <c r="E45" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="K45" s="39"/>
+      <c r="F45" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K45" s="27"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>42</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="8" t="b">
+      <c r="E46" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="K46" s="39"/>
+      <c r="F46" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K46" s="27"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>43</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="8" t="b">
+      <c r="E47" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K47" s="39"/>
+      <c r="F47" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K47" s="27"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>44</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="8" t="b">
+      <c r="E48" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="K48" s="39"/>
+      <c r="F48" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K48" s="27"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>45</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="8" t="b">
+      <c r="E49" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K49" s="39"/>
+      <c r="F49" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K49" s="27"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>46</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="8" t="b">
+      <c r="E50" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K50" s="39"/>
+      <c r="F50" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K50" s="27"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>47</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="8" t="b">
+      <c r="E51" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K51" s="39"/>
+      <c r="F51" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51" s="27"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>48</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="8" t="b">
+      <c r="E52" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K52" s="39"/>
-    </row>
-    <row r="53" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K52" s="27"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>49</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="17" t="b">
+      <c r="E53" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K53" s="27"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G53" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="K53" s="39"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
+      <c r="C54" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K54" s="27"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="26" t="s">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K55" s="27"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K56" s="27"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K57" s="27"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K58" s="27"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K59" s="27"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>56</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K60" s="27"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>57</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K61" s="27"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K62" s="27"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K63" s="27"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K64" s="27"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+    </row>
+    <row r="66" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G55" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H55" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="I55" s="31" t="s">
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I66" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J55" s="32"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G56" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H56" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="I56" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="J56" s="32"/>
-    </row>
-    <row r="57" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="G57" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="H57" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="I57" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="J57" s="32"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
